--- a/data/air_info/南京-厦门.xlsx
+++ b/data/air_info/南京-厦门.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8CD4D6-DB28-4814-8705-5C060DFBB66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D12977-FE8E-42A3-8C0F-2024F02E258E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,24 +33,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
-    <t>行程时间：1 小时 55 分钟</t>
-  </si>
-  <si>
     <t>山航经济舱Boeing 737SC 2186</t>
   </si>
   <si>
-    <t>行程时间：1 小时 45 分钟</t>
-  </si>
-  <si>
     <t>厦航经济舱Boeing 737MF 8540</t>
   </si>
   <si>
     <t>厦航经济舱Boeing 737MF 8560</t>
   </si>
   <si>
-    <t>行程时间：1 小时 50 分钟</t>
-  </si>
-  <si>
     <t>东航经济舱Airbus A320MU 2775</t>
   </si>
   <si>
@@ -79,6 +70,17 @@
   </si>
   <si>
     <t>机票价格</t>
+  </si>
+  <si>
+    <t>1 小时 55 分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 小时 45 分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 小时 50 分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -445,31 +447,31 @@
     <col min="4" max="4" width="29.54296875" style="1" customWidth="1"/>
     <col min="5" max="5" width="35.08984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="28.7265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="8.7265625" style="1"/>
+    <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -477,23 +479,22 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2">
         <v>0.60763888888888884</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f ca="1">RANDBETWEEN(1000,3000)</f>
-        <v>2549</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -501,23 +502,22 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2">
         <v>0.67708333333333337</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G5" ca="1" si="0">RANDBETWEEN(1000,3000)</f>
-        <v>1312</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -525,23 +525,22 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
         <v>0.85069444444444442</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2866</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -549,23 +548,22 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2">
         <v>0.86805555555555558</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2133</v>
+        <v>2183</v>
       </c>
     </row>
   </sheetData>
